--- a/data/UK demand and supply split.xlsx
+++ b/data/UK demand and supply split.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33775DB-97F8-BD4E-89F2-F9BECFE6A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4630441-62AD-BA41-8497-0BD62871700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,73 +19,6 @@
     <sheet name="storage dev" sheetId="5" r:id="rId4"/>
     <sheet name="monthly lng" sheetId="3" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$C$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$C$3:$C$155</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Ark1'!$J$3:$J$155</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Ark1'!$K$3:$K$155</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Ark1'!$L$3:$L$155</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Ark1'!$C$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Ark1'!$C$3:$C$155</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Ark1'!$D$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Ark1'!$D$3:$D$155</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Ark1'!$E$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Ark1'!$E$3:$E$155</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Ark1'!$F$3:$F$155</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Ark1'!$D$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Ark1'!$G$3:$G$155</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Ark1'!$H$3:$H$155</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Ark1'!$I$3:$I$155</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Ark1'!$J$3:$J$155</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Ark1'!$K$3:$K$155</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Ark1'!$L$3:$L$155</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Ark1'!$C$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Ark1'!$C$3:$C$155</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Ark1'!$D$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Ark1'!$D$3:$D$155</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Ark1'!$D$3:$D$155</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Ark1'!$E$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Ark1'!$E$3:$E$155</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Ark1'!$F$3:$F$155</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Ark1'!$G$3:$G$155</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Ark1'!$H$3:$H$155</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Ark1'!$I$3:$I$155</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Ark1'!$J$3:$J$155</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Ark1'!$K$3:$K$155</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Ark1'!$L$3:$L$155</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Ark1'!$C$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Ark1'!$E$2</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Ark1'!$C$3:$C$155</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Ark1'!$D$2</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Ark1'!$D$3:$D$155</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Ark1'!$E$2</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Ark1'!$E$3:$E$155</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Ark1'!$F$3:$F$155</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Ark1'!$G$3:$G$155</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Ark1'!$H$3:$H$155</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Ark1'!$I$3:$I$155</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Ark1'!$J$3:$J$155</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Ark1'!$E$3:$E$155</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Ark1'!$K$3:$K$155</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Ark1'!$L$3:$L$155</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Ark1'!$C$2</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'Ark1'!$C$3:$C$155</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'Ark1'!$D$2</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'Ark1'!$D$3:$D$155</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'Ark1'!$E$2</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'Ark1'!$E$3:$E$155</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'Ark1'!$F$3:$F$155</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'Ark1'!$G$3:$G$155</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Ark1'!$F$3:$F$155</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'Ark1'!$H$3:$H$155</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'Ark1'!$I$3:$I$155</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'Ark1'!$J$3:$J$155</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'Ark1'!$K$3:$K$155</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'Ark1'!$L$3:$L$155</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Ark1'!$G$3:$G$155</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Ark1'!$H$3:$H$155</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Ark1'!$I$3:$I$155</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1298,7 +1231,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1336,6 +1269,7 @@
     <xf numFmtId="2" fontId="22" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="22" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="22" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11582,7 +11516,7 @@
                   <c:v>0.53845239999999994</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>-0.21000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11663,7 +11597,7 @@
                   <c:v>-3.4490599999999982E-2</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>-0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11746,7 +11680,7 @@
                   <c:v>-7.9826199999999986E-2</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.11000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13035,7 +12969,7 @@
                   <c:v>0.53845239999999994</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>-0.21000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13164,7 +13098,7 @@
                   <c:v>-3.4490599999999982E-2</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>-0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13295,7 +13229,7 @@
                   <c:v>-7.9826199999999986E-2</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.11000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14439,7 +14373,7 @@
                   <c:v>1.7804914999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.83066149999999994</c:v>
+                  <c:v>0.62066149999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14567,7 +14501,7 @@
                   <c:v>-1.3915673000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000044E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14926,13 +14860,13 @@
                   <c:v>0.17031067692307691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0298161538461527E-2</c:v>
+                  <c:v>-3.6452007692307678E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.28850373076923075</c:v>
+                  <c:v>-0.29311911538461533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.47509888461538463</c:v>
+                  <c:v>-0.46663734615384617</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.45623870416666662</c:v>
@@ -26022,454 +25956,454 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>25.18796992481203</c:v>
+                  <c:v>20.839813374805598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.001338688085681</c:v>
+                  <c:v>15.582822085889578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.650049850448656</c:v>
+                  <c:v>15.666041275797374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.128440366972479</c:v>
+                  <c:v>13.264427217915593</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.285714285714285</c:v>
+                  <c:v>13.340020060180541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.331010452961671</c:v>
+                  <c:v>13.909378292939934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.386861313868604</c:v>
+                  <c:v>25.03639010189228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.054421768707499</c:v>
+                  <c:v>25.562700964630231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.328358208955216</c:v>
+                  <c:v>19.78494623655914</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.306451612903224</c:v>
+                  <c:v>22.144522144522146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.333333333333343</c:v>
+                  <c:v>30.684326710816777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.095744680851077</c:v>
+                  <c:v>29.817444219066946</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.246049661399546</c:v>
+                  <c:v>25.502318392581142</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.544080604534003</c:v>
+                  <c:v>20.112359550561798</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.082568807339449</c:v>
+                  <c:v>17.931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.605900948366706</c:v>
+                  <c:v>23.940886699507391</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.891891891891888</c:v>
+                  <c:v>24.843945068664162</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.88429752066115</c:v>
+                  <c:v>30.943396226415089</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.353276353276328</c:v>
+                  <c:v>50.853889943073995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.941176470588246</c:v>
+                  <c:v>49.402390438247018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>69.415807560137466</c:v>
+                  <c:v>47.306791569086656</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>69.662921348314597</c:v>
+                  <c:v>44.391408114558473</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79.039301310043655</c:v>
+                  <c:v>43.719806763285021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.878787878787875</c:v>
+                  <c:v>35.585585585585584</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.459383753501392</c:v>
+                  <c:v>31.743119266055043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.265306122448983</c:v>
+                  <c:v>17.7293934681182</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.229050279329616</c:v>
+                  <c:v>18.742293464858207</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.248704663212441</c:v>
+                  <c:v>13.002364066193858</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.640522875816997</c:v>
+                  <c:v>13.270142180094787</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.411985018726593</c:v>
+                  <c:v>17.384370015948964</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>33.136094674556198</c:v>
+                  <c:v>27.406199021207168</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33.753148614609572</c:v>
+                  <c:v>26.853707414829657</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.587859424920126</c:v>
+                  <c:v>25.954198473282442</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.952380952380931</c:v>
+                  <c:v>18.624641833810884</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>103.16455696202529</c:v>
+                  <c:v>52.076677316293917</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.785714285714288</c:v>
+                  <c:v>17.1830985915493</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.4898785425101231</c:v>
+                  <c:v>6.5836298932384354</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.398176291793312</c:v>
+                  <c:v>10.474860335195531</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.678899082568808</c:v>
+                  <c:v>13.510253317249699</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.1516646115906273</c:v>
+                  <c:v>6.583427922814983</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4191919191919196</c:v>
+                  <c:v>4.1322314049586781</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.56718192627824</c:v>
+                  <c:v>3.3296337402885685</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20.588235294117645</c:v>
+                  <c:v>17.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.356200527704495</c:v>
+                  <c:v>28.033472803347287</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.428571428571459</c:v>
+                  <c:v>37.305699481865297</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.825870646766177</c:v>
+                  <c:v>23.102310231023107</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.831050228310499</c:v>
+                  <c:v>17.730496453900706</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12.162162162162161</c:v>
+                  <c:v>9.94475138121547</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15.151515151515149</c:v>
+                  <c:v>13.043478260869563</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14.564564564564563</c:v>
+                  <c:v>13.472222222222221</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.8297872340425538</c:v>
+                  <c:v>3.5856573705179287</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.2301480484522194</c:v>
+                  <c:v>3.0112923462986187</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.0662650602409629</c:v>
+                  <c:v>3.7974683544303791</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.1672354948805461</c:v>
+                  <c:v>6.5624999999999991</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>28.342245989304811</c:v>
+                  <c:v>22.844827586206897</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>49.140893470790374</c:v>
+                  <c:v>33.966745843230399</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>47.509578544061306</c:v>
+                  <c:v>34.540389972144844</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58.695652173913039</c:v>
+                  <c:v>37.604456824512532</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>48.484848484848456</c:v>
+                  <c:v>35.457063711911346</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.769230769230759</c:v>
+                  <c:v>21.169916434540387</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.4615384615384635</c:v>
+                  <c:v>6.8041237113402069</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14.991482112436117</c:v>
+                  <c:v>13.707165109034269</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12.569060773480665</c:v>
+                  <c:v>11.696658097686377</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12.287581699346402</c:v>
+                  <c:v>11.257485029940117</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.453920220082532</c:v>
+                  <c:v>9.7186700767263439</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.823343848580439</c:v>
+                  <c:v>15.782122905027931</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>22.499999999999996</c:v>
+                  <c:v>17.052631578947366</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43.812709030100322</c:v>
+                  <c:v>30.607476635514015</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>31.15384615384615</c:v>
+                  <c:v>23.410404624277454</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>46.560846560846556</c:v>
+                  <c:v>27.329192546583847</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>87.412587412587428</c:v>
+                  <c:v>40.322580645161295</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>41.923076923076941</c:v>
+                  <c:v>26.456310679611654</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>36.675461741424812</c:v>
+                  <c:v>26.885880077369446</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>25.246548323471394</c:v>
+                  <c:v>20.349761526232115</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13.893967093235835</c:v>
+                  <c:v>11.78294573643411</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.8609355246523389</c:v>
+                  <c:v>9.1441969519343491</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>16.129032258064516</c:v>
+                  <c:v>15.037593984962406</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.618157543391188</c:v>
+                  <c:v>12.639405204460965</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>17.962836557582957</c:v>
+                  <c:v>15.743080491700786</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>35.883446055725329</c:v>
+                  <c:v>26.810867303706644</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.591298692100851</c:v>
+                  <c:v>9.8644740534899711</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>45.706016899694411</c:v>
+                  <c:v>25.754810074183322</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>25.864147750906607</c:v>
+                  <c:v>17.613197287859549</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>61.290503848285326</c:v>
+                  <c:v>31.088673379736832</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.3605781792405955</c:v>
+                  <c:v>2.9768095916874975</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.63323801870018</c:v>
+                  <c:v>3.4579258088194482</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.1379414324452006</c:v>
+                  <c:v>3.0310061104589181</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.6071104019549143</c:v>
+                  <c:v>2.5258080423701217</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.5618267913715354</c:v>
+                  <c:v>2.475810667656273</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.610773393292504</c:v>
+                  <c:v>10.683552012274898</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>22.651554409935247</c:v>
+                  <c:v>16.736116734537802</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>23.08615183978543</c:v>
+                  <c:v>15.574108515387</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.951675279468336</c:v>
+                  <c:v>7.9458366161394958</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>36.610830760002763</c:v>
+                  <c:v>15.0852331444957</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>28.355578300795859</c:v>
+                  <c:v>13.630663636004622</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11.38370119439897</c:v>
+                  <c:v>7.8470588036550204</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.0531699821754659</c:v>
+                  <c:v>4.9234460760556766</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.3028478124312874</c:v>
+                  <c:v>4.1025873026662838</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.8436131476626505</c:v>
+                  <c:v>2.7514412344199299</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0618164925426501</c:v>
+                  <c:v>1.9990802843638953</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.8875057437099265</c:v>
+                  <c:v>3.7435305428247356</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.4802336414684909</c:v>
+                  <c:v>5.2648782165275634</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.3864432314959174</c:v>
+                  <c:v>7.813653908506911</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6.4669637850361559</c:v>
+                  <c:v>5.0164533651933354</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.3595271507661391</c:v>
+                  <c:v>4.5926011613177948</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.3855019728344544</c:v>
+                  <c:v>4.6394231432001307</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.8872008917046026</c:v>
+                  <c:v>4.846237002729457</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.4117533106246514</c:v>
+                  <c:v>4.0949952234126741</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>11.65958377459615</c:v>
+                  <c:v>11.013282620803119</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19.58750461753521</c:v>
+                  <c:v>18.558195040393112</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>18.02245297614903</c:v>
+                  <c:v>17.213757424611867</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>16.700591162216526</c:v>
+                  <c:v>15.972985485899963</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>18.68675943846187</c:v>
+                  <c:v>17.850490353562421</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>23.368466962918131</c:v>
+                  <c:v>22.02964862623292</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>31.06366760773394</c:v>
+                  <c:v>27.513684594386707</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>53.341076988759042</c:v>
+                  <c:v>38.010037180749187</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>12.868126682321407</c:v>
+                  <c:v>9.0474444372092933</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>12.87403958955357</c:v>
+                  <c:v>10.019552045054215</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>9.8089475104427351</c:v>
+                  <c:v>7.7529852668093397</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>30.820514061200576</c:v>
+                  <c:v>23.191299446348928</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>33.607881046608625</c:v>
+                  <c:v>30.739965871573084</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>29.628355011572882</c:v>
+                  <c:v>27.892102220722116</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>32.719082423589981</c:v>
+                  <c:v>30.637338256157339</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.27874237662127777</c:v>
+                  <c:v>0.25147008273937116</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.3315968089717241</c:v>
+                  <c:v>1.2263182565125632</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.3277435076006151</c:v>
+                  <c:v>0.29154324244632224</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>64.26328598827628</c:v>
+                  <c:v>46.872264724180255</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>80.667308630874672</c:v>
+                  <c:v>41.576557175251878</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>59.145401650434472</c:v>
+                  <c:v>33.135016317615985</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>26.232014474882547</c:v>
+                  <c:v>17.292043353519603</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>28.754444336255062</c:v>
+                  <c:v>22.405917920646296</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23.845705211035025</c:v>
+                  <c:v>19.145526680731656</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12.161285900368394</c:v>
+                  <c:v>11.320559003267695</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>20.80324170750481</c:v>
+                  <c:v>19.387639147409292</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>21.78232946201787</c:v>
+                  <c:v>20.425160846562626</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>9.749674868226812</c:v>
+                  <c:v>9.1609430669389909</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>25.393358349750077</c:v>
+                  <c:v>23.928872565298999</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>32.509117504650987</c:v>
+                  <c:v>30.359835312466753</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>33.081840946266226</c:v>
+                  <c:v>30.852923904272011</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>27.590533593326988</c:v>
+                  <c:v>25.61482091879752</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>25.890322504088399</c:v>
+                  <c:v>23.283299550799512</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6.0382817991936291</c:v>
+                  <c:v>4.9957326393105745</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.1041932086581072</c:v>
+                  <c:v>5.2267376718383112</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>7.2844259834779628</c:v>
+                  <c:v>5.6983540437237989</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>19.896897279880992</c:v>
+                  <c:v>13.277864853800455</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>22.154140905162791</c:v>
+                  <c:v>19.731549712206615</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>27.941624800585451</c:v>
+                  <c:v>25.024314009364403</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>40.127827534465119</c:v>
+                  <c:v>36.075250009850883</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>36.84860440561684</c:v>
+                  <c:v>31.4218524776241</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>41.508282461243958</c:v>
+                  <c:v>32.508229741931721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43062,8 +42996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T176" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AQ191" sqref="AQ191"/>
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43082,20 +43016,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -43196,8 +43130,8 @@
         <v>5.32</v>
       </c>
       <c r="P3">
-        <f>E3/O3*100</f>
-        <v>25.18796992481203</v>
+        <f>E3/N3*100</f>
+        <v>20.839813374805598</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -43248,9 +43182,9 @@
         <f t="shared" ref="O4:O67" si="3">N4-ABS(SUM(I4,J4,L4))</f>
         <v>7.4699999999999971</v>
       </c>
-      <c r="P4" s="13">
-        <f t="shared" ref="P4:P67" si="4">E4/O4*100</f>
-        <v>17.001338688085681</v>
+      <c r="P4" s="27">
+        <f t="shared" ref="P4:P67" si="4">E4/N4*100</f>
+        <v>15.582822085889578</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -43301,9 +43235,9 @@
         <f t="shared" si="3"/>
         <v>10.029999999999998</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="27">
         <f t="shared" si="4"/>
-        <v>16.650049850448656</v>
+        <v>15.666041275797374</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -43354,9 +43288,9 @@
         <f t="shared" si="3"/>
         <v>10.899999999999999</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="27">
         <f t="shared" si="4"/>
-        <v>14.128440366972479</v>
+        <v>13.264427217915593</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -43407,9 +43341,9 @@
         <f t="shared" si="3"/>
         <v>9.31</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="27">
         <f t="shared" si="4"/>
-        <v>14.285714285714285</v>
+        <v>13.340020060180541</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -43460,9 +43394,9 @@
         <f t="shared" si="3"/>
         <v>8.6100000000000012</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="27">
         <f t="shared" si="4"/>
-        <v>15.331010452961671</v>
+        <v>13.909378292939934</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -43513,9 +43447,9 @@
         <f t="shared" si="3"/>
         <v>5.4800000000000022</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="27">
         <f t="shared" si="4"/>
-        <v>31.386861313868604</v>
+        <v>25.03639010189228</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -43566,9 +43500,9 @@
         <f t="shared" si="3"/>
         <v>4.4099999999999984</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="27">
         <f t="shared" si="4"/>
-        <v>36.054421768707499</v>
+        <v>25.562700964630231</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -43619,9 +43553,9 @@
         <f t="shared" si="3"/>
         <v>2.6800000000000006</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="27">
         <f t="shared" si="4"/>
-        <v>34.328358208955216</v>
+        <v>19.78494623655914</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -43672,9 +43606,9 @@
         <f t="shared" si="3"/>
         <v>2.48</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="27">
         <f t="shared" si="4"/>
-        <v>38.306451612903224</v>
+        <v>22.144522144522146</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -43725,9 +43659,9 @@
         <f t="shared" si="3"/>
         <v>2.9999999999999991</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="27">
         <f t="shared" si="4"/>
-        <v>46.333333333333343</v>
+        <v>30.684326710816777</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -43778,9 +43712,9 @@
         <f t="shared" si="3"/>
         <v>3.7599999999999989</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="27">
         <f t="shared" si="4"/>
-        <v>39.095744680851077</v>
+        <v>29.817444219066946</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -43831,9 +43765,9 @@
         <f t="shared" si="3"/>
         <v>4.4300000000000006</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="27">
         <f t="shared" si="4"/>
-        <v>37.246049661399546</v>
+        <v>25.502318392581142</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -43884,9 +43818,9 @@
         <f t="shared" si="3"/>
         <v>7.94</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="27">
         <f t="shared" si="4"/>
-        <v>22.544080604534003</v>
+        <v>20.112359550561798</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -43937,9 +43871,9 @@
         <f t="shared" si="3"/>
         <v>10.900000000000002</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="27">
         <f t="shared" si="4"/>
-        <v>19.082568807339449</v>
+        <v>17.931034482758619</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -43990,9 +43924,9 @@
         <f t="shared" si="3"/>
         <v>9.49</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="27">
         <f t="shared" si="4"/>
-        <v>25.605900948366706</v>
+        <v>23.940886699507391</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -44043,9 +43977,9 @@
         <f t="shared" si="3"/>
         <v>7.4000000000000012</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="27">
         <f t="shared" si="4"/>
-        <v>26.891891891891888</v>
+        <v>24.843945068664162</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -44096,9 +44030,9 @@
         <f t="shared" si="3"/>
         <v>7.2600000000000016</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="27">
         <f t="shared" si="4"/>
-        <v>33.88429752066115</v>
+        <v>30.943396226415089</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -44149,9 +44083,9 @@
         <f t="shared" si="3"/>
         <v>3.5100000000000016</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="27">
         <f t="shared" si="4"/>
-        <v>76.353276353276328</v>
+        <v>50.853889943073995</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -44202,9 +44136,9 @@
         <f t="shared" si="3"/>
         <v>3.3999999999999995</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="27">
         <f t="shared" si="4"/>
-        <v>72.941176470588246</v>
+        <v>49.402390438247018</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -44255,9 +44189,9 @@
         <f t="shared" si="3"/>
         <v>2.9099999999999997</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="27">
         <f t="shared" si="4"/>
-        <v>69.415807560137466</v>
+        <v>47.306791569086656</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -44308,9 +44242,9 @@
         <f t="shared" si="3"/>
         <v>2.6700000000000004</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="27">
         <f t="shared" si="4"/>
-        <v>69.662921348314597</v>
+        <v>44.391408114558473</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -44361,9 +44295,9 @@
         <f t="shared" si="3"/>
         <v>2.2900000000000005</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="27">
         <f t="shared" si="4"/>
-        <v>79.039301310043655</v>
+        <v>43.719806763285021</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -44414,9 +44348,9 @@
         <f t="shared" si="3"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="27">
         <f t="shared" si="4"/>
-        <v>47.878787878787875</v>
+        <v>35.585585585585584</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -44467,9 +44401,9 @@
         <f t="shared" si="3"/>
         <v>3.5700000000000003</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="27">
         <f t="shared" si="4"/>
-        <v>48.459383753501392</v>
+        <v>31.743119266055043</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -44520,9 +44454,9 @@
         <f t="shared" si="3"/>
         <v>4.8999999999999986</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="27">
         <f t="shared" si="4"/>
-        <v>23.265306122448983</v>
+        <v>17.7293934681182</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -44573,9 +44507,9 @@
         <f t="shared" si="3"/>
         <v>7.1599999999999975</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="27">
         <f t="shared" si="4"/>
-        <v>21.229050279329616</v>
+        <v>18.742293464858207</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -44626,9 +44560,9 @@
         <f t="shared" si="3"/>
         <v>7.7199999999999971</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="27">
         <f t="shared" si="4"/>
-        <v>14.248704663212441</v>
+        <v>13.002364066193858</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -44679,9 +44613,9 @@
         <f t="shared" si="3"/>
         <v>7.6499999999999995</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="27">
         <f t="shared" si="4"/>
-        <v>14.640522875816997</v>
+        <v>13.270142180094787</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -44732,9 +44666,9 @@
         <f t="shared" si="3"/>
         <v>5.3400000000000007</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="27">
         <f t="shared" si="4"/>
-        <v>20.411985018726593</v>
+        <v>17.384370015948964</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -44785,9 +44719,9 @@
         <f t="shared" si="3"/>
         <v>5.0700000000000021</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="27">
         <f t="shared" si="4"/>
-        <v>33.136094674556198</v>
+        <v>27.406199021207168</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -44838,9 +44772,9 @@
         <f t="shared" si="3"/>
         <v>3.97</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="27">
         <f t="shared" si="4"/>
-        <v>33.753148614609572</v>
+        <v>26.853707414829657</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -44891,9 +44825,9 @@
         <f t="shared" si="3"/>
         <v>3.13</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="27">
         <f t="shared" si="4"/>
-        <v>32.587859424920126</v>
+        <v>25.954198473282442</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -44944,9 +44878,9 @@
         <f t="shared" si="3"/>
         <v>2.1000000000000014</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="27">
         <f t="shared" si="4"/>
-        <v>30.952380952380931</v>
+        <v>18.624641833810884</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -44997,9 +44931,9 @@
         <f t="shared" si="3"/>
         <v>1.5800000000000003</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="27">
         <f t="shared" si="4"/>
-        <v>103.16455696202529</v>
+        <v>52.076677316293917</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -45050,9 +44984,9 @@
         <f t="shared" si="3"/>
         <v>2.7999999999999994</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="27">
         <f t="shared" si="4"/>
-        <v>21.785714285714288</v>
+        <v>17.1830985915493</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -45103,9 +45037,9 @@
         <f t="shared" si="3"/>
         <v>4.9399999999999995</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="27">
         <f t="shared" si="4"/>
-        <v>7.4898785425101231</v>
+        <v>6.5836298932384354</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -45156,9 +45090,9 @@
         <f t="shared" si="3"/>
         <v>6.58</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="27">
         <f t="shared" si="4"/>
-        <v>11.398176291793312</v>
+        <v>10.474860335195531</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -45209,9 +45143,9 @@
         <f t="shared" si="3"/>
         <v>7.6300000000000008</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="27">
         <f t="shared" si="4"/>
-        <v>14.678899082568808</v>
+        <v>13.510253317249699</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -45262,9 +45196,9 @@
         <f t="shared" si="3"/>
         <v>8.1100000000000012</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="27">
         <f t="shared" si="4"/>
-        <v>7.1516646115906273</v>
+        <v>6.583427922814983</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -45315,9 +45249,9 @@
         <f t="shared" si="3"/>
         <v>7.919999999999999</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="27">
         <f t="shared" si="4"/>
-        <v>4.4191919191919196</v>
+        <v>4.1322314049586781</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -45368,9 +45302,9 @@
         <f t="shared" si="3"/>
         <v>8.41</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="27">
         <f t="shared" si="4"/>
-        <v>3.56718192627824</v>
+        <v>3.3296337402885685</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -45421,9 +45355,9 @@
         <f t="shared" si="3"/>
         <v>5.4400000000000013</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="27">
         <f t="shared" si="4"/>
-        <v>20.588235294117645</v>
+        <v>17.919999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -45474,9 +45408,9 @@
         <f t="shared" si="3"/>
         <v>3.7899999999999991</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="27">
         <f t="shared" si="4"/>
-        <v>35.356200527704495</v>
+        <v>28.033472803347287</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -45527,9 +45461,9 @@
         <f t="shared" si="3"/>
         <v>2.7999999999999985</v>
       </c>
-      <c r="P47" s="13">
+      <c r="P47" s="27">
         <f t="shared" si="4"/>
-        <v>51.428571428571459</v>
+        <v>37.305699481865297</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -45580,9 +45514,9 @@
         <f t="shared" si="3"/>
         <v>2.0099999999999993</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P48" s="27">
         <f t="shared" si="4"/>
-        <v>34.825870646766177</v>
+        <v>23.102310231023107</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -45633,9 +45567,9 @@
         <f t="shared" si="3"/>
         <v>2.1900000000000004</v>
       </c>
-      <c r="P49" s="13">
+      <c r="P49" s="27">
         <f t="shared" si="4"/>
-        <v>22.831050228310499</v>
+        <v>17.730496453900706</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -45686,9 +45620,9 @@
         <f t="shared" si="3"/>
         <v>2.96</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P50" s="27">
         <f t="shared" si="4"/>
-        <v>12.162162162162161</v>
+        <v>9.94475138121547</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -45739,9 +45673,9 @@
         <f t="shared" si="3"/>
         <v>3.9600000000000004</v>
       </c>
-      <c r="P51" s="13">
+      <c r="P51" s="27">
         <f t="shared" si="4"/>
-        <v>15.151515151515149</v>
+        <v>13.043478260869563</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -45792,9 +45726,9 @@
         <f t="shared" si="3"/>
         <v>6.66</v>
       </c>
-      <c r="P52" s="13">
+      <c r="P52" s="27">
         <f t="shared" si="4"/>
-        <v>14.564564564564563</v>
+        <v>13.472222222222221</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -45845,9 +45779,9 @@
         <f t="shared" si="3"/>
         <v>7.0499999999999989</v>
       </c>
-      <c r="P53" s="13">
+      <c r="P53" s="27">
         <f t="shared" si="4"/>
-        <v>3.8297872340425538</v>
+        <v>3.5856573705179287</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -45898,9 +45832,9 @@
         <f t="shared" si="3"/>
         <v>7.4300000000000024</v>
       </c>
-      <c r="P54" s="13">
+      <c r="P54" s="27">
         <f t="shared" si="4"/>
-        <v>3.2301480484522194</v>
+        <v>3.0112923462986187</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -45951,9 +45885,9 @@
         <f t="shared" si="3"/>
         <v>6.6400000000000015</v>
       </c>
-      <c r="P55" s="13">
+      <c r="P55" s="27">
         <f t="shared" si="4"/>
-        <v>4.0662650602409629</v>
+        <v>3.7974683544303791</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -46004,9 +45938,9 @@
         <f t="shared" si="3"/>
         <v>5.86</v>
       </c>
-      <c r="P56" s="13">
+      <c r="P56" s="27">
         <f t="shared" si="4"/>
-        <v>7.1672354948805461</v>
+        <v>6.5624999999999991</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -46057,9 +45991,9 @@
         <f t="shared" si="3"/>
         <v>3.7400000000000007</v>
       </c>
-      <c r="P57" s="13">
+      <c r="P57" s="27">
         <f t="shared" si="4"/>
-        <v>28.342245989304811</v>
+        <v>22.844827586206897</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -46110,9 +46044,9 @@
         <f t="shared" si="3"/>
         <v>2.91</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P58" s="27">
         <f t="shared" si="4"/>
-        <v>49.140893470790374</v>
+        <v>33.966745843230399</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -46163,9 +46097,9 @@
         <f t="shared" si="3"/>
         <v>2.61</v>
       </c>
-      <c r="P59" s="13">
+      <c r="P59" s="27">
         <f t="shared" si="4"/>
-        <v>47.509578544061306</v>
+        <v>34.540389972144844</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -46216,9 +46150,9 @@
         <f t="shared" si="3"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P60" s="27">
         <f t="shared" si="4"/>
-        <v>58.695652173913039</v>
+        <v>37.604456824512532</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -46269,9 +46203,9 @@
         <f t="shared" si="3"/>
         <v>2.6400000000000015</v>
       </c>
-      <c r="P61" s="13">
+      <c r="P61" s="27">
         <f t="shared" si="4"/>
-        <v>48.484848484848456</v>
+        <v>35.457063711911346</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -46322,9 +46256,9 @@
         <f t="shared" si="3"/>
         <v>2.4700000000000006</v>
       </c>
-      <c r="P62" s="13">
+      <c r="P62" s="27">
         <f t="shared" si="4"/>
-        <v>30.769230769230759</v>
+        <v>21.169916434540387</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -46375,9 +46309,9 @@
         <f t="shared" si="3"/>
         <v>3.8999999999999995</v>
       </c>
-      <c r="P63" s="13">
+      <c r="P63" s="27">
         <f t="shared" si="4"/>
-        <v>8.4615384615384635</v>
+        <v>6.8041237113402069</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -46428,9 +46362,9 @@
         <f t="shared" si="3"/>
         <v>5.87</v>
       </c>
-      <c r="P64" s="13">
+      <c r="P64" s="27">
         <f t="shared" si="4"/>
-        <v>14.991482112436117</v>
+        <v>13.707165109034269</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -46481,9 +46415,9 @@
         <f t="shared" si="3"/>
         <v>7.2399999999999993</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="27">
         <f t="shared" si="4"/>
-        <v>12.569060773480665</v>
+        <v>11.696658097686377</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -46534,9 +46468,9 @@
         <f t="shared" si="3"/>
         <v>7.6500000000000012</v>
       </c>
-      <c r="P66" s="13">
+      <c r="P66" s="27">
         <f t="shared" si="4"/>
-        <v>12.287581699346402</v>
+        <v>11.257485029940117</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -46587,9 +46521,9 @@
         <f t="shared" si="3"/>
         <v>7.27</v>
       </c>
-      <c r="P67" s="13">
+      <c r="P67" s="27">
         <f t="shared" si="4"/>
-        <v>10.453920220082532</v>
+        <v>9.7186700767263439</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -46640,9 +46574,9 @@
         <f t="shared" ref="O68:O131" si="8">N68-ABS(SUM(I68,J68,L68))</f>
         <v>6.34</v>
       </c>
-      <c r="P68" s="13">
-        <f t="shared" ref="P68:P131" si="9">E68/O68*100</f>
-        <v>17.823343848580439</v>
+      <c r="P68" s="27">
+        <f t="shared" ref="P68:P131" si="9">E68/N68*100</f>
+        <v>15.782122905027931</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -46693,9 +46627,9 @@
         <f t="shared" si="8"/>
         <v>3.600000000000001</v>
       </c>
-      <c r="P69" s="13">
+      <c r="P69" s="27">
         <f t="shared" si="9"/>
-        <v>22.499999999999996</v>
+        <v>17.052631578947366</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -46746,9 +46680,9 @@
         <f t="shared" si="8"/>
         <v>2.9900000000000011</v>
       </c>
-      <c r="P70" s="13">
+      <c r="P70" s="27">
         <f t="shared" si="9"/>
-        <v>43.812709030100322</v>
+        <v>30.607476635514015</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -46799,9 +46733,9 @@
         <f t="shared" si="8"/>
         <v>2.6000000000000005</v>
       </c>
-      <c r="P71" s="13">
+      <c r="P71" s="27">
         <f t="shared" si="9"/>
-        <v>31.15384615384615</v>
+        <v>23.410404624277454</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
@@ -46852,9 +46786,9 @@
         <f t="shared" si="8"/>
         <v>1.8900000000000001</v>
       </c>
-      <c r="P72" s="13">
+      <c r="P72" s="27">
         <f t="shared" si="9"/>
-        <v>46.560846560846556</v>
+        <v>27.329192546583847</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -46905,9 +46839,9 @@
         <f t="shared" si="8"/>
         <v>1.4299999999999997</v>
       </c>
-      <c r="P73" s="13">
+      <c r="P73" s="27">
         <f t="shared" si="9"/>
-        <v>87.412587412587428</v>
+        <v>40.322580645161295</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -46958,9 +46892,9 @@
         <f t="shared" si="8"/>
         <v>2.5999999999999992</v>
       </c>
-      <c r="P74" s="13">
+      <c r="P74" s="27">
         <f t="shared" si="9"/>
-        <v>41.923076923076941</v>
+        <v>26.456310679611654</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -47011,9 +46945,9 @@
         <f t="shared" si="8"/>
         <v>3.7899999999999983</v>
       </c>
-      <c r="P75" s="13">
+      <c r="P75" s="27">
         <f t="shared" si="9"/>
-        <v>36.675461741424812</v>
+        <v>26.885880077369446</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -47064,9 +46998,9 @@
         <f t="shared" si="8"/>
         <v>5.0700000000000012</v>
       </c>
-      <c r="P76" s="13">
+      <c r="P76" s="27">
         <f t="shared" si="9"/>
-        <v>25.246548323471394</v>
+        <v>20.349761526232115</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -47117,9 +47051,9 @@
         <f t="shared" si="8"/>
         <v>5.4699999999999989</v>
       </c>
-      <c r="P77" s="13">
+      <c r="P77" s="27">
         <f t="shared" si="9"/>
-        <v>13.893967093235835</v>
+        <v>11.78294573643411</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -47170,9 +47104,9 @@
         <f t="shared" si="8"/>
         <v>7.9099999999999993</v>
       </c>
-      <c r="P78" s="13">
+      <c r="P78" s="27">
         <f t="shared" si="9"/>
-        <v>9.8609355246523389</v>
+        <v>9.1441969519343491</v>
       </c>
       <c r="S78" s="9" t="s">
         <v>161</v>
@@ -47226,9 +47160,9 @@
         <f t="shared" si="8"/>
         <v>7.44</v>
       </c>
-      <c r="P79" s="13">
+      <c r="P79" s="27">
         <f t="shared" si="9"/>
-        <v>16.129032258064516</v>
+        <v>15.037593984962406</v>
       </c>
       <c r="S79" s="11" t="s">
         <v>159</v>
@@ -47282,9 +47216,9 @@
         <f t="shared" si="8"/>
         <v>7.49</v>
       </c>
-      <c r="P80" s="13">
+      <c r="P80" s="27">
         <f t="shared" si="9"/>
-        <v>13.618157543391188</v>
+        <v>12.639405204460965</v>
       </c>
       <c r="S80" s="9" t="s">
         <v>160</v>
@@ -47338,9 +47272,9 @@
         <f t="shared" si="8"/>
         <v>5.7964598000000009</v>
       </c>
-      <c r="P81" s="13">
+      <c r="P81" s="27">
         <f t="shared" si="9"/>
-        <v>17.962836557582957</v>
+        <v>15.743080491700786</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -47391,9 +47325,9 @@
         <f t="shared" si="8"/>
         <v>3.4851844999999986</v>
       </c>
-      <c r="P82" s="13">
+      <c r="P82" s="27">
         <f t="shared" si="9"/>
-        <v>35.883446055725329</v>
+        <v>26.810867303706644</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -47444,9 +47378,9 @@
         <f t="shared" si="8"/>
         <v>3.7699390000000008</v>
       </c>
-      <c r="P83" s="13">
+      <c r="P83" s="27">
         <f t="shared" si="9"/>
-        <v>10.591298692100851</v>
+        <v>9.8644740534899711</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -47497,9 +47431,9 @@
         <f t="shared" si="8"/>
         <v>2.0401611500000003</v>
       </c>
-      <c r="P84" s="13">
+      <c r="P84" s="27">
         <f t="shared" si="9"/>
-        <v>45.706016899694411</v>
+        <v>25.754810074183322</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -47550,9 +47484,9 @@
         <f t="shared" si="8"/>
         <v>2.3777976600000001</v>
       </c>
-      <c r="P85" s="13">
+      <c r="P85" s="27">
         <f t="shared" si="9"/>
-        <v>25.864147750906607</v>
+        <v>17.613197287859549</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -47603,9 +47537,9 @@
         <f t="shared" si="8"/>
         <v>1.8327915900000005</v>
       </c>
-      <c r="P86" s="13">
+      <c r="P86" s="27">
         <f t="shared" si="9"/>
-        <v>61.290503848285326</v>
+        <v>31.088673379736832</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
@@ -47656,9 +47590,9 @@
         <f t="shared" si="8"/>
         <v>5.3859422500000003</v>
       </c>
-      <c r="P87" s="13">
+      <c r="P87" s="27">
         <f t="shared" si="9"/>
-        <v>3.3605781792405955</v>
+        <v>2.9768095916874975</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -47709,9 +47643,9 @@
         <f t="shared" si="8"/>
         <v>7.965401619999998</v>
       </c>
-      <c r="P88" s="13">
+      <c r="P88" s="27">
         <f t="shared" si="9"/>
-        <v>3.63323801870018</v>
+        <v>3.4579258088194482</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -47762,9 +47696,9 @@
         <f t="shared" si="8"/>
         <v>8.2590451599999994</v>
       </c>
-      <c r="P89" s="13">
+      <c r="P89" s="27">
         <f t="shared" si="9"/>
-        <v>3.1379414324452006</v>
+        <v>3.0310061104589181</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -47815,9 +47749,9 @@
         <f t="shared" si="8"/>
         <v>9.5002421000000012</v>
       </c>
-      <c r="P90" s="13">
+      <c r="P90" s="27">
         <f t="shared" si="9"/>
-        <v>2.6071104019549143</v>
+        <v>2.5258080423701217</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -47868,9 +47802,9 @@
         <f t="shared" si="8"/>
         <v>7.4071205999999989</v>
       </c>
-      <c r="P91" s="13">
+      <c r="P91" s="27">
         <f t="shared" si="9"/>
-        <v>2.5618267913715354</v>
+        <v>2.475810667656273</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -47921,9 +47855,9 @@
         <f t="shared" si="8"/>
         <v>6.5824349</v>
       </c>
-      <c r="P92" s="13">
+      <c r="P92" s="27">
         <f t="shared" si="9"/>
-        <v>11.610773393292504</v>
+        <v>10.683552012274898</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -47974,9 +47908,9 @@
         <f t="shared" si="8"/>
         <v>4.183429900000001</v>
       </c>
-      <c r="P93" s="13">
+      <c r="P93" s="27">
         <f t="shared" si="9"/>
-        <v>22.651554409935247</v>
+        <v>16.736116734537802</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -48027,9 +47961,9 @@
         <f t="shared" si="8"/>
         <v>3.0660830999999997</v>
       </c>
-      <c r="P94" s="13">
+      <c r="P94" s="27">
         <f t="shared" si="9"/>
-        <v>23.08615183978543</v>
+        <v>15.574108515387</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -48080,9 +48014,9 @@
         <f t="shared" si="8"/>
         <v>2.5611488000000002</v>
       </c>
-      <c r="P95" s="13">
+      <c r="P95" s="27">
         <f t="shared" si="9"/>
-        <v>10.951675279468336</v>
+        <v>7.9458366161394958</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
@@ -48133,9 +48067,9 @@
         <f t="shared" si="8"/>
         <v>1.4377605999999994</v>
       </c>
-      <c r="P96" s="13">
+      <c r="P96" s="27">
         <f t="shared" si="9"/>
-        <v>36.610830760002763</v>
+        <v>15.0852331444957</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
@@ -48186,9 +48120,9 @@
         <f t="shared" si="8"/>
         <v>1.6335530000000009</v>
       </c>
-      <c r="P97" s="13">
+      <c r="P97" s="27">
         <f t="shared" si="9"/>
-        <v>28.355578300795859</v>
+        <v>13.630663636004622</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -48239,9 +48173,9 @@
         <f t="shared" si="8"/>
         <v>2.8563320000000001</v>
       </c>
-      <c r="P98" s="13">
+      <c r="P98" s="27">
         <f t="shared" si="9"/>
-        <v>11.38370119439897</v>
+        <v>7.8470588036550204</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -48292,9 +48226,9 @@
         <f t="shared" si="8"/>
         <v>4.3039547999999987</v>
       </c>
-      <c r="P99" s="13">
+      <c r="P99" s="27">
         <f t="shared" si="9"/>
-        <v>6.0531699821754659</v>
+        <v>4.9234460760556766</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -48345,9 +48279,9 @@
         <f t="shared" si="8"/>
         <v>7.4227817000000007</v>
       </c>
-      <c r="P100" s="13">
+      <c r="P100" s="27">
         <f t="shared" si="9"/>
-        <v>4.3028478124312874</v>
+        <v>4.1025873026662838</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -48398,9 +48332,9 @@
         <f t="shared" si="8"/>
         <v>8.6641286000000015</v>
       </c>
-      <c r="P101" s="13">
+      <c r="P101" s="27">
         <f t="shared" si="9"/>
-        <v>2.8436131476626505</v>
+        <v>2.7514412344199299</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
@@ -48451,9 +48385,9 @@
         <f t="shared" si="8"/>
         <v>9.138936499999998</v>
       </c>
-      <c r="P102" s="13">
+      <c r="P102" s="27">
         <f t="shared" si="9"/>
-        <v>2.0618164925426501</v>
+        <v>1.9990802843638953</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -48504,9 +48438,9 @@
         <f t="shared" si="8"/>
         <v>8.583737799999998</v>
       </c>
-      <c r="P103" s="13">
+      <c r="P103" s="27">
         <f t="shared" si="9"/>
-        <v>3.8875057437099265</v>
+        <v>3.7435305428247356</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -48557,9 +48491,9 @@
         <f t="shared" si="8"/>
         <v>8.4892292999999999</v>
       </c>
-      <c r="P104" s="13">
+      <c r="P104" s="27">
         <f t="shared" si="9"/>
-        <v>5.4802336414684909</v>
+        <v>5.2648782165275634</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
@@ -48610,9 +48544,9 @@
         <f t="shared" si="8"/>
         <v>5.7539494000000007</v>
       </c>
-      <c r="P105" s="13">
+      <c r="P105" s="27">
         <f t="shared" si="9"/>
-        <v>8.3864432314959174</v>
+        <v>7.813653908506911</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
@@ -48663,9 +48597,9 @@
         <f t="shared" si="8"/>
         <v>3.3583023999999986</v>
       </c>
-      <c r="P106" s="13">
+      <c r="P106" s="27">
         <f t="shared" si="9"/>
-        <v>6.4669637850361559</v>
+        <v>5.0164533651933354</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -48716,9 +48650,9 @@
         <f t="shared" si="8"/>
         <v>3.0652983999999992</v>
       </c>
-      <c r="P107" s="13">
+      <c r="P107" s="27">
         <f t="shared" si="9"/>
-        <v>5.3595271507661391</v>
+        <v>4.5926011613177948</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -48769,9 +48703,9 @@
         <f t="shared" si="8"/>
         <v>2.0066812999999994</v>
       </c>
-      <c r="P108" s="13">
+      <c r="P108" s="27">
         <f t="shared" si="9"/>
-        <v>8.3855019728344544</v>
+        <v>4.6394231432001307</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -48822,9 +48756,9 @@
         <f t="shared" si="8"/>
         <v>2.1268926999999986</v>
       </c>
-      <c r="P109" s="13">
+      <c r="P109" s="27">
         <f t="shared" si="9"/>
-        <v>7.8872008917046026</v>
+        <v>4.846237002729457</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
@@ -48875,9 +48809,9 @@
         <f t="shared" si="8"/>
         <v>2.855677099999999</v>
       </c>
-      <c r="P110" s="13">
+      <c r="P110" s="27">
         <f t="shared" si="9"/>
-        <v>5.4117533106246514</v>
+        <v>4.0949952234126741</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
@@ -48928,9 +48862,9 @@
         <f t="shared" si="8"/>
         <v>5.5097549999999993</v>
       </c>
-      <c r="P111" s="13">
+      <c r="P111" s="27">
         <f t="shared" si="9"/>
-        <v>11.65958377459615</v>
+        <v>11.013282620803119</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
@@ -48981,9 +48915,9 @@
         <f t="shared" si="8"/>
         <v>6.7730939999999986</v>
       </c>
-      <c r="P112" s="13">
+      <c r="P112" s="27">
         <f t="shared" si="9"/>
-        <v>19.58750461753521</v>
+        <v>18.558195040393112</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
@@ -49034,9 +48968,9 @@
         <f t="shared" si="8"/>
         <v>7.7162332000000013</v>
       </c>
-      <c r="P113" s="13">
+      <c r="P113" s="27">
         <f t="shared" si="9"/>
-        <v>18.02245297614903</v>
+        <v>17.213757424611867</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
@@ -49087,9 +49021,9 @@
         <f t="shared" si="8"/>
         <v>9.3117080999999988</v>
       </c>
-      <c r="P114" s="13">
+      <c r="P114" s="27">
         <f t="shared" si="9"/>
-        <v>16.700591162216526</v>
+        <v>15.972985485899963</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
@@ -49140,9 +49074,9 @@
         <f t="shared" si="8"/>
         <v>7.0587905000000015</v>
       </c>
-      <c r="P115" s="13">
+      <c r="P115" s="27">
         <f t="shared" si="9"/>
-        <v>18.68675943846187</v>
+        <v>17.850490353562421</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
@@ -49193,9 +49127,9 @@
         <f t="shared" si="8"/>
         <v>6.7683490000000015</v>
       </c>
-      <c r="P116" s="13">
+      <c r="P116" s="27">
         <f t="shared" si="9"/>
-        <v>23.368466962918131</v>
+        <v>22.02964862623292</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
@@ -49246,9 +49180,9 @@
         <f t="shared" si="8"/>
         <v>7.1509942999999989</v>
       </c>
-      <c r="P117" s="13">
+      <c r="P117" s="27">
         <f t="shared" si="9"/>
-        <v>31.06366760773394</v>
+        <v>27.513684594386707</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
@@ -49299,9 +49233,9 @@
         <f t="shared" si="8"/>
         <v>3.8539937999999996</v>
       </c>
-      <c r="P118" s="13">
+      <c r="P118" s="27">
         <f t="shared" si="9"/>
-        <v>53.341076988759042</v>
+        <v>38.010037180749187</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
@@ -49352,9 +49286,9 @@
         <f t="shared" si="8"/>
         <v>3.1236971000000002</v>
       </c>
-      <c r="P119" s="13">
+      <c r="P119" s="27">
         <f t="shared" si="9"/>
-        <v>12.868126682321407</v>
+        <v>9.0474444372092933</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
@@ -49407,9 +49341,9 @@
         <f t="shared" si="8"/>
         <v>3.0646923000000008</v>
       </c>
-      <c r="P120" s="13">
+      <c r="P120" s="27">
         <f t="shared" si="9"/>
-        <v>12.87403958955357</v>
+        <v>10.019552045054215</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
@@ -49462,9 +49396,9 @@
         <f t="shared" si="8"/>
         <v>2.6815772</v>
       </c>
-      <c r="P121" s="13">
+      <c r="P121" s="27">
         <f t="shared" si="9"/>
-        <v>9.8089475104427351</v>
+        <v>7.7529852668093397</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
@@ -49517,9 +49451,9 @@
         <f t="shared" si="8"/>
         <v>3.0132170999999994</v>
       </c>
-      <c r="P122" s="13">
+      <c r="P122" s="27">
         <f t="shared" si="9"/>
-        <v>30.820514061200576</v>
+        <v>23.191299446348928</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
@@ -49572,9 +49506,9 @@
         <f t="shared" si="8"/>
         <v>5.5952873000000007</v>
       </c>
-      <c r="P123" s="13">
+      <c r="P123" s="27">
         <f t="shared" si="9"/>
-        <v>33.607881046608625</v>
+        <v>30.739965871573084</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
@@ -49627,9 +49561,9 @@
         <f t="shared" si="8"/>
         <v>7.5214979000000035</v>
       </c>
-      <c r="P124" s="13">
+      <c r="P124" s="27">
         <f t="shared" si="9"/>
-        <v>29.628355011572882</v>
+        <v>27.892102220722116</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
@@ -49682,9 +49616,9 @@
         <f t="shared" si="8"/>
         <v>7.6358807000000013</v>
       </c>
-      <c r="P125" s="13">
+      <c r="P125" s="27">
         <f t="shared" si="9"/>
-        <v>32.719082423589981</v>
+        <v>30.637338256157339</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
@@ -49737,9 +49671,9 @@
         <f t="shared" si="8"/>
         <v>5.1092339000000004</v>
       </c>
-      <c r="P126" s="13">
+      <c r="P126" s="27">
         <f t="shared" si="9"/>
-        <v>0.27874237662127777</v>
+        <v>0.25147008273937116</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
@@ -49792,9 +49726,9 @@
         <f t="shared" si="8"/>
         <v>5.1589639999999992</v>
       </c>
-      <c r="P127" s="13">
+      <c r="P127" s="27">
         <f t="shared" si="9"/>
-        <v>1.3315968089717241</v>
+        <v>1.2263182565125632</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
@@ -49847,9 +49781,9 @@
         <f t="shared" si="8"/>
         <v>4.9283050999999993</v>
       </c>
-      <c r="P128" s="13">
+      <c r="P128" s="27">
         <f t="shared" si="9"/>
-        <v>0.3277435076006151</v>
+        <v>0.29154324244632224</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
@@ -49902,9 +49836,9 @@
         <f t="shared" si="8"/>
         <v>3.2982887000000005</v>
       </c>
-      <c r="P129" s="13">
+      <c r="P129" s="27">
         <f t="shared" si="9"/>
-        <v>64.26328598827628</v>
+        <v>46.872264724180255</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
@@ -49957,9 +49891,9 @@
         <f t="shared" si="8"/>
         <v>1.9751879999999991</v>
       </c>
-      <c r="P130" s="13">
+      <c r="P130" s="27">
         <f t="shared" si="9"/>
-        <v>80.667308630874672</v>
+        <v>41.576557175251878</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
@@ -50012,9 +49946,9 @@
         <f t="shared" si="8"/>
         <v>1.9629619000000003</v>
       </c>
-      <c r="P131" s="13">
+      <c r="P131" s="27">
         <f t="shared" si="9"/>
-        <v>59.145401650434472</v>
+        <v>33.135016317615985</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
@@ -50067,9 +50001,9 @@
         <f t="shared" ref="O132:O155" si="13">N132-ABS(SUM(I132,J132,L132))</f>
         <v>2.4877852999999992</v>
       </c>
-      <c r="P132" s="13">
-        <f t="shared" ref="P132:P155" si="14">E132/O132*100</f>
-        <v>26.232014474882547</v>
+      <c r="P132" s="27">
+        <f t="shared" ref="P132:P155" si="14">E132/N132*100</f>
+        <v>17.292043353519603</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
@@ -50122,9 +50056,9 @@
         <f t="shared" si="13"/>
         <v>2.8663729</v>
       </c>
-      <c r="P133" s="13">
+      <c r="P133" s="27">
         <f t="shared" si="14"/>
-        <v>28.754444336255062</v>
+        <v>22.405917920646296</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
@@ -50177,9 +50111,9 @@
         <f t="shared" si="13"/>
         <v>3.3414168000000011</v>
       </c>
-      <c r="P134" s="13">
+      <c r="P134" s="27">
         <f t="shared" si="14"/>
-        <v>23.845705211035025</v>
+        <v>19.145526680731656</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
@@ -50232,9 +50166,9 @@
         <f t="shared" si="13"/>
         <v>5.6904812999999992</v>
       </c>
-      <c r="P135" s="13">
+      <c r="P135" s="27">
         <f t="shared" si="14"/>
-        <v>12.161285900368394</v>
+        <v>11.320559003267695</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
@@ -50287,9 +50221,9 @@
         <f t="shared" si="13"/>
         <v>6.3305403</v>
       </c>
-      <c r="P136" s="13">
+      <c r="P136" s="27">
         <f t="shared" si="14"/>
-        <v>20.80324170750481</v>
+        <v>19.387639147409292</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -50342,9 +50276,9 @@
         <f t="shared" si="13"/>
         <v>8.0821365000000007</v>
       </c>
-      <c r="P137" s="13">
+      <c r="P137" s="27">
         <f t="shared" si="14"/>
-        <v>21.78232946201787</v>
+        <v>20.425160846562626</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -50397,9 +50331,9 @@
         <f t="shared" si="13"/>
         <v>9.2372546999999994</v>
       </c>
-      <c r="P138" s="13">
+      <c r="P138" s="27">
         <f t="shared" si="14"/>
-        <v>9.749674868226812</v>
+        <v>9.1609430669389909</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
@@ -50452,9 +50386,9 @@
         <f t="shared" si="13"/>
         <v>7.4713870999999985</v>
       </c>
-      <c r="P139" s="13">
+      <c r="P139" s="27">
         <f t="shared" si="14"/>
-        <v>25.393358349750077</v>
+        <v>23.928872565298999</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
@@ -50507,9 +50441,9 @@
         <f t="shared" si="13"/>
         <v>7.1402211999999983</v>
       </c>
-      <c r="P140" s="13">
+      <c r="P140" s="27">
         <f t="shared" si="14"/>
-        <v>32.509117504650987</v>
+        <v>30.359835312466753</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
@@ -50562,9 +50496,9 @@
         <f t="shared" si="13"/>
         <v>6.3838778000000005</v>
       </c>
-      <c r="P141" s="13">
+      <c r="P141" s="27">
         <f t="shared" si="14"/>
-        <v>33.081840946266226</v>
+        <v>30.852923904272011</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
@@ -50617,9 +50551,9 @@
         <f t="shared" si="13"/>
         <v>5.1791520999999987</v>
       </c>
-      <c r="P142" s="13">
+      <c r="P142" s="27">
         <f t="shared" si="14"/>
-        <v>27.590533593326988</v>
+        <v>25.61482091879752</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
@@ -50672,9 +50606,9 @@
         <f t="shared" si="13"/>
         <v>3.9270881999999996</v>
       </c>
-      <c r="P143" s="13">
+      <c r="P143" s="27">
         <f t="shared" si="14"/>
-        <v>25.890322504088399</v>
+        <v>23.283299550799512</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
@@ -50727,9 +50661,9 @@
         <f t="shared" si="13"/>
         <v>2.8115083999999997</v>
       </c>
-      <c r="P144" s="13">
+      <c r="P144" s="27">
         <f t="shared" si="14"/>
-        <v>6.0382817991936291</v>
+        <v>4.9957326393105745</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
@@ -50782,9 +50716,9 @@
         <f t="shared" si="13"/>
         <v>2.8326184000000012</v>
       </c>
-      <c r="P145" s="13">
+      <c r="P145" s="27">
         <f t="shared" si="14"/>
-        <v>6.1041932086581072</v>
+        <v>5.2267376718383112</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
@@ -50837,9 +50771,9 @@
         <f t="shared" si="13"/>
         <v>2.9084789999999998</v>
       </c>
-      <c r="P146" s="13">
+      <c r="P146" s="27">
         <f t="shared" si="14"/>
-        <v>7.2844259834779628</v>
+        <v>5.6983540437237989</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
@@ -50892,9 +50826,9 @@
         <f t="shared" si="13"/>
         <v>3.2318254999999985</v>
       </c>
-      <c r="P147" s="13">
+      <c r="P147" s="27">
         <f t="shared" si="14"/>
-        <v>19.896897279880992</v>
+        <v>13.277864853800455</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -50947,9 +50881,9 @@
         <f t="shared" si="13"/>
         <v>6.2641593999999996</v>
       </c>
-      <c r="P148" s="13">
+      <c r="P148" s="27">
         <f t="shared" si="14"/>
-        <v>22.154140905162791</v>
+        <v>19.731549712206615</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
@@ -51002,9 +50936,9 @@
         <f t="shared" si="13"/>
         <v>7.2005784000000022</v>
       </c>
-      <c r="P149" s="13">
+      <c r="P149" s="27">
         <f t="shared" si="14"/>
-        <v>27.941624800585451</v>
+        <v>25.024314009364403</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
@@ -51057,9 +50991,9 @@
         <f t="shared" si="13"/>
         <v>7.8416595000000004</v>
       </c>
-      <c r="P150" s="13">
+      <c r="P150" s="27">
         <f t="shared" si="14"/>
-        <v>40.127827534465119</v>
+        <v>36.075250009850883</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -51112,9 +51046,9 @@
         <f t="shared" si="13"/>
         <v>5.5668072999999998</v>
       </c>
-      <c r="P151" s="13">
+      <c r="P151" s="27">
         <f t="shared" si="14"/>
-        <v>36.84860440561684</v>
+        <v>31.4218524776241</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
@@ -51167,9 +51101,9 @@
         <f t="shared" si="13"/>
         <v>5.1907637999999992</v>
       </c>
-      <c r="P152" s="13">
+      <c r="P152" s="27">
         <f t="shared" si="14"/>
-        <v>41.508282461243958</v>
+        <v>32.508229741931721</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
@@ -51210,13 +51144,21 @@
       <c r="L153" s="3">
         <v>-0.45</v>
       </c>
+      <c r="M153" s="7">
+        <f t="shared" ref="M153:M155" si="15">H153+K153</f>
+        <v>-0.21000000000000002</v>
+      </c>
+      <c r="N153" s="7">
+        <f t="shared" ref="N153:N155" si="16">SUM(C153:L153)</f>
+        <v>5.4599999999999991</v>
+      </c>
       <c r="O153" s="7">
         <f t="shared" si="13"/>
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="P153" s="13">
+        <v>2.9699999999999989</v>
+      </c>
+      <c r="P153" s="27">
         <f t="shared" si="14"/>
-        <v>-122.0883534136546</v>
+        <v>55.677655677655693</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
@@ -51257,13 +51199,21 @@
       <c r="L154" s="3">
         <v>-0.46</v>
       </c>
+      <c r="M154" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.06</v>
+      </c>
+      <c r="N154" s="7">
+        <f t="shared" si="16"/>
+        <v>4.3499999999999988</v>
+      </c>
       <c r="O154" s="7">
         <f t="shared" si="13"/>
-        <v>-2.64</v>
-      </c>
-      <c r="P154" s="13">
+        <v>1.7099999999999986</v>
+      </c>
+      <c r="P154" s="27">
         <f t="shared" si="14"/>
-        <v>-70.075757575757578</v>
+        <v>42.528735632183924</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
@@ -51304,13 +51254,21 @@
       <c r="L155" s="3">
         <v>-0.44</v>
       </c>
+      <c r="M155" s="7">
+        <f t="shared" si="15"/>
+        <v>0.11000000000000004</v>
+      </c>
+      <c r="N155" s="7">
+        <f t="shared" si="16"/>
+        <v>3.600000000000001</v>
+      </c>
       <c r="O155" s="7">
         <f t="shared" si="13"/>
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="P155" s="13">
+        <v>1.0900000000000012</v>
+      </c>
+      <c r="P155" s="27">
         <f t="shared" si="14"/>
-        <v>-50.996015936254992</v>
+        <v>35.555555555555543</v>
       </c>
     </row>
   </sheetData>
@@ -52386,26 +52344,26 @@
       </c>
       <c r="E15" s="12">
         <f ca="1">OFFSET('Ark1'!$M$9,(ROW('Ark1'!M20)-8)*12,0)</f>
-        <v>0</v>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="F15" s="12">
         <f ca="1">OFFSET('Ark1'!$M$10,(ROW('Ark1'!M21)-9)*12,0)</f>
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="G15" s="12">
         <f ca="1">OFFSET('Ark1'!$M$11,(ROW('Ark1'!M22)-10)*12,0)</f>
-        <v>0</v>
+        <v>0.11000000000000004</v>
       </c>
       <c r="N15" s="12">
         <v>2022</v>
       </c>
       <c r="O15" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83066149999999994</v>
+        <v>0.62066149999999998</v>
       </c>
       <c r="P15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -52426,15 +52384,15 @@
       </c>
       <c r="E16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.0298161538461527E-2</v>
+        <v>-3.6452007692307678E-2</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.28850373076923075</v>
+        <v>-0.29311911538461533</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.47509888461538463</v>
+        <v>-0.46663734615384617</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -52511,7 +52469,7 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f ca="1">AVERAGE(E2:E15)</f>
-        <v>-2.0298161538461527E-2</v>
+        <v>-3.6452007692307678E-2</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>187</v>
@@ -52520,7 +52478,7 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f ca="1">AVERAGE(F2:F15)</f>
-        <v>-0.28850373076923075</v>
+        <v>-0.29311911538461533</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>188</v>
@@ -52529,7 +52487,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f ca="1">AVERAGE(G2:G15)</f>
-        <v>-0.47509888461538463</v>
+        <v>-0.46663734615384617</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>189</v>
@@ -55272,7 +55230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBD7CB2-2977-8344-9522-02331AD727AE}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
